--- a/data/file.xlsx
+++ b/data/file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>URL</t>
   </si>

--- a/data/file.xlsx
+++ b/data/file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
   <si>
     <t>URL</t>
   </si>

--- a/data/file.xlsx
+++ b/data/file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
   <si>
     <t>URL</t>
   </si>

--- a/data/file.xlsx
+++ b/data/file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
   <si>
     <t>URL</t>
   </si>

--- a/data/file.xlsx
+++ b/data/file.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ketan.sethi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ketan.sethi\git\DemoProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{89224ED4-12AC-4278-B2BF-814274C016B0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="1845" windowWidth="15300" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>URL</t>
   </si>
@@ -57,12 +58,15 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -385,19 +389,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -448,13 +451,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId2" ref="A3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
